--- a/biology/Botanique/Massospora_cicadina/Massospora_cicadina.xlsx
+++ b/biology/Botanique/Massospora_cicadina/Massospora_cicadina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Massospora cicadina est une espèce de la famille des Entomophthoraceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est un pathogène qui infectent des cigales périodiques ayant des cycles de vie de 13 et 17 ans.
-L'infection des cigales consiste en une insertion de spores qui croissent progressivement au bout de l'abdomen des cigales vivantes, ce qui engendre infertilité, transmission du pathogène et éventuellement la mort des celles-ci[1].
+L'infection des cigales consiste en une insertion de spores qui croissent progressivement au bout de l'abdomen des cigales vivantes, ce qui engendre infertilité, transmission du pathogène et éventuellement la mort des celles-ci.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Massospora cicadina Peck[2].
-Massospora cicadina a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Massospora cicadina Peck.
+Massospora cicadina a pour synonyme :
 Entomophthora cicadina (Peck) Bubák</t>
         </is>
       </c>
